--- a/SchedulingData/dynamic16/pso/scheduling2_10.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling2_10.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>240.44</v>
+        <v>235.56</v>
       </c>
       <c r="D2" t="n">
-        <v>316.2</v>
+        <v>282.26</v>
       </c>
       <c r="E2" t="n">
-        <v>12.04</v>
+        <v>10.964</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>256.14</v>
+        <v>263.16</v>
       </c>
       <c r="D3" t="n">
-        <v>310.06</v>
+        <v>309.02</v>
       </c>
       <c r="E3" t="n">
-        <v>11.124</v>
+        <v>13.728</v>
       </c>
     </row>
     <row r="4">
@@ -504,17 +504,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>250.76</v>
+        <v>235.58</v>
       </c>
       <c r="D4" t="n">
-        <v>316.76</v>
+        <v>294.9</v>
       </c>
       <c r="E4" t="n">
-        <v>10.964</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="5">
@@ -523,55 +523,55 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>316.2</v>
+        <v>217.82</v>
       </c>
       <c r="D5" t="n">
-        <v>386.44</v>
+        <v>279.48</v>
       </c>
       <c r="E5" t="n">
-        <v>7.616</v>
+        <v>11.732</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>216.34</v>
+        <v>294.9</v>
       </c>
       <c r="D6" t="n">
-        <v>254.14</v>
+        <v>345</v>
       </c>
       <c r="E6" t="n">
-        <v>19.536</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>254.14</v>
+        <v>309.02</v>
       </c>
       <c r="D7" t="n">
-        <v>311.34</v>
+        <v>389.52</v>
       </c>
       <c r="E7" t="n">
-        <v>16.456</v>
+        <v>9.308</v>
       </c>
     </row>
     <row r="8">
@@ -580,131 +580,131 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>310.06</v>
+        <v>206.2</v>
       </c>
       <c r="D8" t="n">
-        <v>372.16</v>
+        <v>253.3</v>
       </c>
       <c r="E8" t="n">
-        <v>7.524</v>
+        <v>14.86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>311.34</v>
+        <v>345</v>
       </c>
       <c r="D9" t="n">
-        <v>375.7</v>
+        <v>391.7</v>
       </c>
       <c r="E9" t="n">
-        <v>11.64</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>372.16</v>
+        <v>391.7</v>
       </c>
       <c r="D10" t="n">
-        <v>415.68</v>
+        <v>442.56</v>
       </c>
       <c r="E10" t="n">
-        <v>4.312</v>
+        <v>1.304</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>231.66</v>
+        <v>442.56</v>
       </c>
       <c r="D11" t="n">
-        <v>294.34</v>
+        <v>521.75</v>
       </c>
       <c r="E11" t="n">
-        <v>11.196</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>375.7</v>
+        <v>253.3</v>
       </c>
       <c r="D12" t="n">
-        <v>420</v>
+        <v>337.1</v>
       </c>
       <c r="E12" t="n">
-        <v>8.34</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>316.76</v>
+        <v>212.3</v>
       </c>
       <c r="D13" t="n">
-        <v>387.9</v>
+        <v>279.7</v>
       </c>
       <c r="E13" t="n">
-        <v>5.98</v>
+        <v>16.08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>209.86</v>
+        <v>279.7</v>
       </c>
       <c r="D14" t="n">
-        <v>260.26</v>
+        <v>357.18</v>
       </c>
       <c r="E14" t="n">
-        <v>12.164</v>
+        <v>11.432</v>
       </c>
     </row>
     <row r="15">
@@ -713,55 +713,55 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>420</v>
+        <v>357.18</v>
       </c>
       <c r="D15" t="n">
-        <v>489.1</v>
+        <v>423.74</v>
       </c>
       <c r="E15" t="n">
-        <v>3.54</v>
+        <v>7.376</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>386.44</v>
+        <v>389.52</v>
       </c>
       <c r="D16" t="n">
-        <v>443.22</v>
+        <v>473.18</v>
       </c>
       <c r="E16" t="n">
-        <v>4.548</v>
+        <v>5.052</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>294.34</v>
+        <v>473.18</v>
       </c>
       <c r="D17" t="n">
-        <v>337.74</v>
+        <v>539.78</v>
       </c>
       <c r="E17" t="n">
-        <v>8.476000000000001</v>
+        <v>1.512</v>
       </c>
     </row>
     <row r="18">
@@ -770,117 +770,117 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>260.26</v>
+        <v>539.78</v>
       </c>
       <c r="D18" t="n">
-        <v>325.56</v>
+        <v>618.46</v>
       </c>
       <c r="E18" t="n">
-        <v>7.744</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>387.9</v>
+        <v>282.26</v>
       </c>
       <c r="D19" t="n">
-        <v>425.5</v>
+        <v>355.8</v>
       </c>
       <c r="E19" t="n">
-        <v>3.86</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>425.5</v>
+        <v>279.48</v>
       </c>
       <c r="D20" t="n">
-        <v>509.28</v>
+        <v>318.88</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>8.432</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>509.28</v>
+        <v>355.8</v>
       </c>
       <c r="D21" t="n">
-        <v>563.08</v>
+        <v>408.5</v>
       </c>
       <c r="E21" t="n">
-        <v>25.32</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>325.56</v>
+        <v>318.88</v>
       </c>
       <c r="D22" t="n">
-        <v>407.96</v>
+        <v>389.88</v>
       </c>
       <c r="E22" t="n">
-        <v>4.104</v>
+        <v>4.912</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>443.22</v>
+        <v>521.75</v>
       </c>
       <c r="D23" t="n">
-        <v>520.3200000000001</v>
+        <v>592.23</v>
       </c>
       <c r="E23" t="n">
-        <v>0.948</v>
+        <v>26.112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>520.3200000000001</v>
+        <v>408.5</v>
       </c>
       <c r="D24" t="n">
-        <v>595.42</v>
+        <v>473.24</v>
       </c>
       <c r="E24" t="n">
         <v>30</v>
@@ -899,83 +899,83 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>407.96</v>
+        <v>473.24</v>
       </c>
       <c r="D25" t="n">
-        <v>501.76</v>
+        <v>527.04</v>
       </c>
       <c r="E25" t="n">
-        <v>0.804</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>501.76</v>
+        <v>337.1</v>
       </c>
       <c r="D26" t="n">
-        <v>606.55</v>
+        <v>389.4</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>595.42</v>
+        <v>592.23</v>
       </c>
       <c r="D27" t="n">
-        <v>637.4</v>
+        <v>645.45</v>
       </c>
       <c r="E27" t="n">
-        <v>27.492</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>637.4</v>
+        <v>423.74</v>
       </c>
       <c r="D28" t="n">
-        <v>696.76</v>
+        <v>484.28</v>
       </c>
       <c r="E28" t="n">
-        <v>23.176</v>
+        <v>2.952</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -983,374 +983,374 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>337.74</v>
+        <v>389.4</v>
       </c>
       <c r="D29" t="n">
-        <v>392.12</v>
+        <v>458.68</v>
       </c>
       <c r="E29" t="n">
-        <v>4.668</v>
+        <v>2.652</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>415.68</v>
+        <v>527.04</v>
       </c>
       <c r="D30" t="n">
-        <v>480.76</v>
+        <v>597.86</v>
       </c>
       <c r="E30" t="n">
-        <v>0.924</v>
+        <v>20.848</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>480.76</v>
+        <v>484.28</v>
       </c>
       <c r="D31" t="n">
-        <v>555.71</v>
+        <v>541.98</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>555.71</v>
+        <v>541.98</v>
       </c>
       <c r="D32" t="n">
-        <v>622.61</v>
+        <v>642.66</v>
       </c>
       <c r="E32" t="n">
-        <v>26.46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>563.08</v>
+        <v>618.46</v>
       </c>
       <c r="D33" t="n">
-        <v>632.58</v>
+        <v>662.8200000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>21.96</v>
+        <v>27.244</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>696.76</v>
+        <v>597.86</v>
       </c>
       <c r="D34" t="n">
-        <v>743.5599999999999</v>
+        <v>669.2</v>
       </c>
       <c r="E34" t="n">
-        <v>19.636</v>
+        <v>17.824</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>489.1</v>
+        <v>662.8200000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>563.92</v>
+        <v>705.12</v>
       </c>
       <c r="E35" t="n">
-        <v>30</v>
+        <v>25.124</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>563.92</v>
+        <v>645.45</v>
       </c>
       <c r="D36" t="n">
-        <v>634.4</v>
+        <v>732.55</v>
       </c>
       <c r="E36" t="n">
-        <v>26.112</v>
+        <v>19.26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>622.61</v>
+        <v>705.12</v>
       </c>
       <c r="D37" t="n">
-        <v>692.3099999999999</v>
+        <v>765.12</v>
       </c>
       <c r="E37" t="n">
-        <v>23.08</v>
+        <v>21.744</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>632.58</v>
+        <v>642.66</v>
       </c>
       <c r="D38" t="n">
-        <v>687.38</v>
+        <v>713.14</v>
       </c>
       <c r="E38" t="n">
-        <v>19.1</v>
+        <v>26.112</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>634.4</v>
+        <v>389.88</v>
       </c>
       <c r="D39" t="n">
-        <v>680.24</v>
+        <v>432.28</v>
       </c>
       <c r="E39" t="n">
-        <v>23.148</v>
+        <v>1.312</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>692.3099999999999</v>
+        <v>432.28</v>
       </c>
       <c r="D40" t="n">
-        <v>740.01</v>
+        <v>511.66</v>
       </c>
       <c r="E40" t="n">
-        <v>19.44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>680.24</v>
+        <v>511.66</v>
       </c>
       <c r="D41" t="n">
-        <v>728</v>
+        <v>548.76</v>
       </c>
       <c r="E41" t="n">
-        <v>20.012</v>
+        <v>27.48</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>606.55</v>
+        <v>548.76</v>
       </c>
       <c r="D42" t="n">
-        <v>650.91</v>
+        <v>597.1799999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>27.244</v>
+        <v>24.268</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>743.5599999999999</v>
+        <v>458.68</v>
       </c>
       <c r="D43" t="n">
-        <v>796.26</v>
+        <v>535.1799999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>16.996</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>687.38</v>
+        <v>535.1799999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>752.1799999999999</v>
+        <v>601.98</v>
       </c>
       <c r="E44" t="n">
-        <v>15.72</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>392.12</v>
+        <v>713.14</v>
       </c>
       <c r="D45" t="n">
-        <v>478.58</v>
+        <v>762.84</v>
       </c>
       <c r="E45" t="n">
-        <v>0.612</v>
+        <v>23.252</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>478.58</v>
+        <v>601.98</v>
       </c>
       <c r="D46" t="n">
-        <v>578.66</v>
+        <v>639.78</v>
       </c>
       <c r="E46" t="n">
-        <v>30</v>
+        <v>23.34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>728</v>
+        <v>732.55</v>
       </c>
       <c r="D47" t="n">
-        <v>764.64</v>
+        <v>784.33</v>
       </c>
       <c r="E47" t="n">
-        <v>16.988</v>
+        <v>16.192</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>650.91</v>
+        <v>669.2</v>
       </c>
       <c r="D48" t="n">
-        <v>699.75</v>
+        <v>739.5</v>
       </c>
       <c r="E48" t="n">
-        <v>23.5</v>
+        <v>13.924</v>
       </c>
     </row>
   </sheetData>
